--- a/biology/Microbiologie/Neogloboquadrina_pachyderma/Neogloboquadrina_pachyderma.xlsx
+++ b/biology/Microbiologie/Neogloboquadrina_pachyderma/Neogloboquadrina_pachyderma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Neogloboquadrina pachyderma est une espèce de foraminifères découverte par Christian Gottfried Ehrenberg en 1861.
 </t>
@@ -511,7 +523,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce présente une tolérance assez large de conditions de vie, mais apprécie les eaux froides et denses, avec un faible gradient vertical de température ainsi que des variations saisonnières limitées — ce qui situe son meilleur habitat aux latitudes sub-polaires à polaires. On le trouve en faibles quantités dans les eaux tropicales et subtropicales.
 En captant le carbone sous forme de CaCO3, l'espèce joue un rôle dans les fonctions de puits de carbone de l'océan.
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'enroulement de la coquille (ou test) de Neogloboquadrina pachyderma dépend de la température de l'eau de surface:
@@ -578,7 +594,9 @@
           <t>Bio-indicateur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses propriétés indicatrices en font un allié précieux des climatologues. En effet, l'observation des populations fossiles permet d'obtenir une évaluation assez précise de la densité et de la température de l'eau de mer dans laquelle évoluaient les individus.
 </t>
